--- a/data/trans_orig/P36B14_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P36B14_R-Estudios-trans_orig.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B7E65D81-2B96-4EA9-A6E9-C9A52A249CC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C7F52C62-9925-46F1-A795-5D3BD6852A73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4748861A-A3A9-4EF5-B4AA-AAB6295A535B}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{464EC9D5-FD42-452C-96BA-D9F48CFF2E04}"/>
   </bookViews>
   <sheets>
-    <sheet name="2015" sheetId="2" r:id="rId1"/>
+    <sheet name="2016" sheetId="2" r:id="rId1"/>
     <sheet name="2023" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -37,9 +37,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="157">
-  <si>
-    <t>Población que consume menos de una bebida azucarada por día en 2015 (Tasa respuesta: 99,39%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="159">
+  <si>
+    <t>Población que consume menos de una bebida azucarada por día en 2016 (Tasa respuesta: 99,39%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -75,28 +75,28 @@
     <t>91,37%</t>
   </si>
   <si>
-    <t>89,05%</t>
-  </si>
-  <si>
-    <t>93,09%</t>
+    <t>89,29%</t>
+  </si>
+  <si>
+    <t>93,24%</t>
   </si>
   <si>
     <t>94,14%</t>
   </si>
   <si>
-    <t>92,64%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
+    <t>92,65%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
   </si>
   <si>
     <t>92,95%</t>
   </si>
   <si>
-    <t>91,63%</t>
-  </si>
-  <si>
-    <t>94,13%</t>
+    <t>91,66%</t>
+  </si>
+  <si>
+    <t>94,07%</t>
   </si>
   <si>
     <t>NO</t>
@@ -105,28 +105,28 @@
     <t>8,63%</t>
   </si>
   <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
   </si>
   <si>
     <t>5,86%</t>
   </si>
   <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
   </si>
   <si>
     <t>7,05%</t>
   </si>
   <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
   </si>
   <si>
     <t>100%</t>
@@ -138,310 +138,316 @@
     <t>80,96%</t>
   </si>
   <si>
-    <t>78,97%</t>
-  </si>
-  <si>
-    <t>82,61%</t>
+    <t>78,96%</t>
+  </si>
+  <si>
+    <t>82,65%</t>
   </si>
   <si>
     <t>82,56%</t>
   </si>
   <si>
-    <t>80,86%</t>
-  </si>
-  <si>
-    <t>84,17%</t>
+    <t>80,77%</t>
+  </si>
+  <si>
+    <t>84,2%</t>
   </si>
   <si>
     <t>81,74%</t>
   </si>
   <si>
-    <t>80,53%</t>
+    <t>80,43%</t>
+  </si>
+  <si>
+    <t>82,89%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>19,23%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>87,79%</t>
+  </si>
+  <si>
+    <t>84,89%</t>
+  </si>
+  <si>
+    <t>90,49%</t>
+  </si>
+  <si>
+    <t>88,54%</t>
+  </si>
+  <si>
+    <t>85,57%</t>
+  </si>
+  <si>
+    <t>91,12%</t>
+  </si>
+  <si>
+    <t>88,16%</t>
+  </si>
+  <si>
+    <t>86,04%</t>
+  </si>
+  <si>
+    <t>89,94%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>84,38%</t>
+  </si>
+  <si>
+    <t>83,06%</t>
+  </si>
+  <si>
+    <t>85,55%</t>
+  </si>
+  <si>
+    <t>86,74%</t>
+  </si>
+  <si>
+    <t>85,44%</t>
+  </si>
+  <si>
+    <t>87,87%</t>
+  </si>
+  <si>
+    <t>85,59%</t>
+  </si>
+  <si>
+    <t>84,7%</t>
+  </si>
+  <si>
+    <t>86,34%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que consume menos de una bebida azucarada por día en 2023 (Tasa respuesta: 99,78%)</t>
+  </si>
+  <si>
+    <t>72,43%</t>
+  </si>
+  <si>
+    <t>68,54%</t>
+  </si>
+  <si>
+    <t>76,06%</t>
+  </si>
+  <si>
+    <t>77,56%</t>
+  </si>
+  <si>
+    <t>75,08%</t>
+  </si>
+  <si>
+    <t>79,78%</t>
+  </si>
+  <si>
+    <t>75,55%</t>
+  </si>
+  <si>
+    <t>73,55%</t>
+  </si>
+  <si>
+    <t>77,48%</t>
+  </si>
+  <si>
+    <t>27,57%</t>
+  </si>
+  <si>
+    <t>23,94%</t>
+  </si>
+  <si>
+    <t>31,46%</t>
+  </si>
+  <si>
+    <t>22,44%</t>
+  </si>
+  <si>
+    <t>20,22%</t>
+  </si>
+  <si>
+    <t>24,92%</t>
+  </si>
+  <si>
+    <t>24,45%</t>
+  </si>
+  <si>
+    <t>22,52%</t>
+  </si>
+  <si>
+    <t>26,45%</t>
+  </si>
+  <si>
+    <t>68,47%</t>
+  </si>
+  <si>
+    <t>65,74%</t>
+  </si>
+  <si>
+    <t>71,45%</t>
+  </si>
+  <si>
+    <t>74,77%</t>
+  </si>
+  <si>
+    <t>72,51%</t>
+  </si>
+  <si>
+    <t>78,87%</t>
+  </si>
+  <si>
+    <t>71,68%</t>
+  </si>
+  <si>
+    <t>70,07%</t>
+  </si>
+  <si>
+    <t>74,63%</t>
+  </si>
+  <si>
+    <t>31,53%</t>
+  </si>
+  <si>
+    <t>28,55%</t>
+  </si>
+  <si>
+    <t>34,26%</t>
+  </si>
+  <si>
+    <t>25,23%</t>
+  </si>
+  <si>
+    <t>21,13%</t>
+  </si>
+  <si>
+    <t>27,49%</t>
+  </si>
+  <si>
+    <t>28,32%</t>
+  </si>
+  <si>
+    <t>25,37%</t>
+  </si>
+  <si>
+    <t>29,93%</t>
+  </si>
+  <si>
+    <t>79,77%</t>
+  </si>
+  <si>
+    <t>76,05%</t>
   </si>
   <si>
     <t>83,0%</t>
   </si>
   <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>21,03%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>15,83%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
+    <t>83,56%</t>
+  </si>
+  <si>
+    <t>80,68%</t>
+  </si>
+  <si>
+    <t>81,72%</t>
+  </si>
+  <si>
+    <t>79,47%</t>
+  </si>
+  <si>
+    <t>83,8%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
   </si>
   <si>
     <t>17,0%</t>
   </si>
   <si>
-    <t>19,47%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>87,79%</t>
-  </si>
-  <si>
-    <t>84,62%</t>
-  </si>
-  <si>
-    <t>90,37%</t>
-  </si>
-  <si>
-    <t>88,54%</t>
-  </si>
-  <si>
-    <t>85,66%</t>
-  </si>
-  <si>
-    <t>91,1%</t>
-  </si>
-  <si>
-    <t>88,16%</t>
-  </si>
-  <si>
-    <t>86,02%</t>
-  </si>
-  <si>
-    <t>90,03%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>84,38%</t>
-  </si>
-  <si>
-    <t>83,14%</t>
-  </si>
-  <si>
-    <t>85,73%</t>
-  </si>
-  <si>
-    <t>86,74%</t>
-  </si>
-  <si>
-    <t>85,59%</t>
-  </si>
-  <si>
-    <t>87,87%</t>
-  </si>
-  <si>
-    <t>84,7%</t>
-  </si>
-  <si>
-    <t>86,38%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que consume menos de una bebida azucarada por día en 2023 (Tasa respuesta: 99,78%)</t>
-  </si>
-  <si>
-    <t>72,43%</t>
-  </si>
-  <si>
-    <t>68,54%</t>
-  </si>
-  <si>
-    <t>76,06%</t>
-  </si>
-  <si>
-    <t>77,56%</t>
-  </si>
-  <si>
-    <t>75,08%</t>
-  </si>
-  <si>
-    <t>79,78%</t>
-  </si>
-  <si>
-    <t>75,55%</t>
-  </si>
-  <si>
-    <t>73,55%</t>
-  </si>
-  <si>
-    <t>77,48%</t>
-  </si>
-  <si>
-    <t>27,57%</t>
-  </si>
-  <si>
-    <t>23,94%</t>
-  </si>
-  <si>
-    <t>31,46%</t>
-  </si>
-  <si>
-    <t>22,44%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>24,92%</t>
-  </si>
-  <si>
-    <t>24,45%</t>
-  </si>
-  <si>
-    <t>22,52%</t>
-  </si>
-  <si>
-    <t>26,45%</t>
-  </si>
-  <si>
-    <t>68,47%</t>
-  </si>
-  <si>
-    <t>65,74%</t>
-  </si>
-  <si>
-    <t>71,45%</t>
-  </si>
-  <si>
-    <t>74,77%</t>
-  </si>
-  <si>
-    <t>72,51%</t>
-  </si>
-  <si>
-    <t>78,87%</t>
-  </si>
-  <si>
-    <t>71,68%</t>
-  </si>
-  <si>
-    <t>70,07%</t>
-  </si>
-  <si>
-    <t>74,63%</t>
-  </si>
-  <si>
-    <t>31,53%</t>
-  </si>
-  <si>
-    <t>28,55%</t>
-  </si>
-  <si>
-    <t>34,26%</t>
-  </si>
-  <si>
-    <t>25,23%</t>
-  </si>
-  <si>
-    <t>21,13%</t>
-  </si>
-  <si>
-    <t>27,49%</t>
-  </si>
-  <si>
-    <t>28,32%</t>
-  </si>
-  <si>
-    <t>25,37%</t>
-  </si>
-  <si>
-    <t>29,93%</t>
-  </si>
-  <si>
-    <t>79,77%</t>
-  </si>
-  <si>
-    <t>76,05%</t>
-  </si>
-  <si>
-    <t>83,56%</t>
-  </si>
-  <si>
-    <t>80,68%</t>
-  </si>
-  <si>
-    <t>86,04%</t>
-  </si>
-  <si>
-    <t>81,72%</t>
-  </si>
-  <si>
-    <t>79,47%</t>
-  </si>
-  <si>
-    <t>83,8%</t>
-  </si>
-  <si>
-    <t>20,23%</t>
-  </si>
-  <si>
     <t>23,95%</t>
   </si>
   <si>
     <t>16,44%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
   </si>
   <si>
     <t>19,32%</t>
@@ -919,7 +925,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B43B99B3-784F-4E0C-BE75-0713BFA5802A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16AF85E6-E9A4-446D-8581-3975EA696B9A}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1505,7 +1511,7 @@
         <v>2698</v>
       </c>
       <c r="D13" s="7">
-        <v>2830394</v>
+        <v>2830395</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>69</v>
@@ -1538,13 +1544,13 @@
         <v>5874889</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1559,13 +1565,13 @@
         <v>523979</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H14" s="7">
         <v>458</v>
@@ -1574,13 +1580,13 @@
         <v>465331</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M14" s="7">
         <v>953</v>
@@ -1589,13 +1595,13 @@
         <v>989310</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1607,7 +1613,7 @@
         <v>3193</v>
       </c>
       <c r="D15" s="7">
-        <v>3354373</v>
+        <v>3354374</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1651,7 +1657,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -1670,7 +1676,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A225D59E-F465-4B0A-9875-EF445AA41103}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D539102-7E36-4FF0-8889-2B395B2E2DD7}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1687,7 +1693,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -1794,13 +1800,13 @@
         <v>390654</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H4" s="7">
         <v>1140</v>
@@ -1809,13 +1815,13 @@
         <v>648348</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M4" s="7">
         <v>1662</v>
@@ -1824,13 +1830,13 @@
         <v>1039001</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -1845,13 +1851,13 @@
         <v>148706</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H5" s="7">
         <v>287</v>
@@ -1860,13 +1866,13 @@
         <v>187605</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M5" s="7">
         <v>454</v>
@@ -1875,13 +1881,13 @@
         <v>336311</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1949,13 +1955,13 @@
         <v>1478380</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H7" s="7">
         <v>2239</v>
@@ -1964,13 +1970,13 @@
         <v>1678458</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M7" s="7">
         <v>3622</v>
@@ -1979,13 +1985,13 @@
         <v>3156838</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2000,13 +2006,13 @@
         <v>680758</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H8" s="7">
         <v>675</v>
@@ -2015,13 +2021,13 @@
         <v>566438</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M8" s="7">
         <v>1281</v>
@@ -2030,13 +2036,13 @@
         <v>1247196</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2104,13 +2110,13 @@
         <v>536878</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>40</v>
+        <v>127</v>
       </c>
       <c r="H10" s="7">
         <v>855</v>
@@ -2119,13 +2125,13 @@
         <v>595424</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>127</v>
+        <v>58</v>
       </c>
       <c r="M10" s="7">
         <v>1411</v>
@@ -2134,13 +2140,13 @@
         <v>1132302</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2155,13 +2161,13 @@
         <v>136161</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>48</v>
+        <v>134</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="H11" s="7">
         <v>146</v>
@@ -2170,13 +2176,13 @@
         <v>117117</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>134</v>
+        <v>68</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M11" s="7">
         <v>271</v>
@@ -2185,13 +2191,13 @@
         <v>253278</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2259,13 +2265,13 @@
         <v>2405913</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="H13" s="7">
         <v>4234</v>
@@ -2274,13 +2280,13 @@
         <v>2922229</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="M13" s="7">
         <v>6695</v>
@@ -2289,13 +2295,13 @@
         <v>5328142</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2310,13 +2316,13 @@
         <v>965624</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="H14" s="7">
         <v>1108</v>
@@ -2325,13 +2331,13 @@
         <v>871160</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="M14" s="7">
         <v>2006</v>
@@ -2340,13 +2346,13 @@
         <v>1836784</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2402,7 +2408,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P36B14_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P36B14_R-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C7F52C62-9925-46F1-A795-5D3BD6852A73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CE107DB8-7186-4449-98EC-FED96B043B38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{464EC9D5-FD42-452C-96BA-D9F48CFF2E04}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E4A6A4FC-6EF9-47CD-9789-684F798973F7}"/>
   </bookViews>
   <sheets>
     <sheet name="2016" sheetId="2" r:id="rId1"/>
@@ -69,64 +69,64 @@
     <t>Primarios</t>
   </si>
   <si>
-    <t>SÍ</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>91,37%</t>
   </si>
   <si>
-    <t>89,29%</t>
-  </si>
-  <si>
-    <t>93,24%</t>
+    <t>89,09%</t>
+  </si>
+  <si>
+    <t>93,37%</t>
   </si>
   <si>
     <t>94,14%</t>
   </si>
   <si>
-    <t>92,65%</t>
-  </si>
-  <si>
-    <t>95,58%</t>
+    <t>92,47%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
   </si>
   <si>
     <t>92,95%</t>
   </si>
   <si>
-    <t>91,66%</t>
-  </si>
-  <si>
-    <t>94,07%</t>
-  </si>
-  <si>
-    <t>NO</t>
+    <t>91,63%</t>
+  </si>
+  <si>
+    <t>94,03%</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
   <si>
     <t>8,63%</t>
   </si>
   <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
   </si>
   <si>
     <t>5,86%</t>
   </si>
   <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
   </si>
   <si>
     <t>7,05%</t>
   </si>
   <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
   </si>
   <si>
     <t>100%</t>
@@ -138,55 +138,55 @@
     <t>80,96%</t>
   </si>
   <si>
-    <t>78,96%</t>
-  </si>
-  <si>
-    <t>82,65%</t>
+    <t>79,21%</t>
+  </si>
+  <si>
+    <t>82,64%</t>
   </si>
   <si>
     <t>82,56%</t>
   </si>
   <si>
-    <t>80,77%</t>
-  </si>
-  <si>
-    <t>84,2%</t>
+    <t>80,75%</t>
+  </si>
+  <si>
+    <t>84,06%</t>
   </si>
   <si>
     <t>81,74%</t>
   </si>
   <si>
-    <t>80,43%</t>
-  </si>
-  <si>
-    <t>82,89%</t>
+    <t>80,51%</t>
+  </si>
+  <si>
+    <t>82,91%</t>
   </si>
   <si>
     <t>19,04%</t>
   </si>
   <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
+    <t>17,36%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
   </si>
   <si>
     <t>17,44%</t>
   </si>
   <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>19,23%</t>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>19,25%</t>
   </si>
   <si>
     <t>18,26%</t>
   </si>
   <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
+    <t>17,09%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -195,109 +195,109 @@
     <t>87,79%</t>
   </si>
   <si>
-    <t>84,89%</t>
-  </si>
-  <si>
-    <t>90,49%</t>
+    <t>84,94%</t>
+  </si>
+  <si>
+    <t>90,46%</t>
   </si>
   <si>
     <t>88,54%</t>
   </si>
   <si>
-    <t>85,57%</t>
-  </si>
-  <si>
-    <t>91,12%</t>
+    <t>85,77%</t>
+  </si>
+  <si>
+    <t>90,97%</t>
   </si>
   <si>
     <t>88,16%</t>
   </si>
   <si>
-    <t>86,04%</t>
-  </si>
-  <si>
-    <t>89,94%</t>
+    <t>86,17%</t>
+  </si>
+  <si>
+    <t>89,83%</t>
   </si>
   <si>
     <t>12,21%</t>
   </si>
   <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
   </si>
   <si>
     <t>11,46%</t>
   </si>
   <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>14,23%</t>
   </si>
   <si>
     <t>11,84%</t>
   </si>
   <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
   </si>
   <si>
     <t>84,38%</t>
   </si>
   <si>
-    <t>83,06%</t>
-  </si>
-  <si>
-    <t>85,55%</t>
+    <t>82,97%</t>
+  </si>
+  <si>
+    <t>85,58%</t>
   </si>
   <si>
     <t>86,74%</t>
   </si>
   <si>
-    <t>85,44%</t>
-  </si>
-  <si>
-    <t>87,87%</t>
+    <t>85,49%</t>
+  </si>
+  <si>
+    <t>87,74%</t>
   </si>
   <si>
     <t>85,59%</t>
   </si>
   <si>
-    <t>84,7%</t>
-  </si>
-  <si>
-    <t>86,34%</t>
+    <t>84,79%</t>
+  </si>
+  <si>
+    <t>86,43%</t>
   </si>
   <si>
     <t>15,62%</t>
   </si>
   <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
   </si>
   <si>
     <t>13,26%</t>
   </si>
   <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
   </si>
   <si>
     <t>14,41%</t>
   </si>
   <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -309,211 +309,211 @@
     <t>72,43%</t>
   </si>
   <si>
-    <t>68,54%</t>
-  </si>
-  <si>
-    <t>76,06%</t>
+    <t>68,59%</t>
+  </si>
+  <si>
+    <t>75,88%</t>
   </si>
   <si>
     <t>77,56%</t>
   </si>
   <si>
-    <t>75,08%</t>
-  </si>
-  <si>
-    <t>79,78%</t>
+    <t>74,82%</t>
+  </si>
+  <si>
+    <t>80,0%</t>
   </si>
   <si>
     <t>75,55%</t>
   </si>
   <si>
-    <t>73,55%</t>
-  </si>
-  <si>
-    <t>77,48%</t>
+    <t>73,33%</t>
+  </si>
+  <si>
+    <t>77,59%</t>
   </si>
   <si>
     <t>27,57%</t>
   </si>
   <si>
-    <t>23,94%</t>
-  </si>
-  <si>
-    <t>31,46%</t>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>31,41%</t>
   </si>
   <si>
     <t>22,44%</t>
   </si>
   <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>24,92%</t>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>25,18%</t>
   </si>
   <si>
     <t>24,45%</t>
   </si>
   <si>
-    <t>22,52%</t>
-  </si>
-  <si>
-    <t>26,45%</t>
+    <t>22,41%</t>
+  </si>
+  <si>
+    <t>26,67%</t>
   </si>
   <si>
     <t>68,47%</t>
   </si>
   <si>
-    <t>65,74%</t>
-  </si>
-  <si>
-    <t>71,45%</t>
+    <t>65,97%</t>
+  </si>
+  <si>
+    <t>71,37%</t>
   </si>
   <si>
     <t>74,77%</t>
   </si>
   <si>
-    <t>72,51%</t>
-  </si>
-  <si>
-    <t>78,87%</t>
+    <t>72,61%</t>
+  </si>
+  <si>
+    <t>78,85%</t>
   </si>
   <si>
     <t>71,68%</t>
   </si>
   <si>
-    <t>70,07%</t>
-  </si>
-  <si>
-    <t>74,63%</t>
+    <t>69,74%</t>
+  </si>
+  <si>
+    <t>74,19%</t>
   </si>
   <si>
     <t>31,53%</t>
   </si>
   <si>
-    <t>28,55%</t>
-  </si>
-  <si>
-    <t>34,26%</t>
+    <t>28,63%</t>
+  </si>
+  <si>
+    <t>34,03%</t>
   </si>
   <si>
     <t>25,23%</t>
   </si>
   <si>
-    <t>21,13%</t>
-  </si>
-  <si>
-    <t>27,49%</t>
+    <t>21,15%</t>
+  </si>
+  <si>
+    <t>27,39%</t>
   </si>
   <si>
     <t>28,32%</t>
   </si>
   <si>
-    <t>25,37%</t>
-  </si>
-  <si>
-    <t>29,93%</t>
+    <t>25,81%</t>
+  </si>
+  <si>
+    <t>30,26%</t>
   </si>
   <si>
     <t>79,77%</t>
   </si>
   <si>
-    <t>76,05%</t>
-  </si>
-  <si>
-    <t>83,0%</t>
+    <t>76,2%</t>
+  </si>
+  <si>
+    <t>83,05%</t>
   </si>
   <si>
     <t>83,56%</t>
   </si>
   <si>
-    <t>80,68%</t>
+    <t>86,12%</t>
   </si>
   <si>
     <t>81,72%</t>
   </si>
   <si>
-    <t>79,47%</t>
-  </si>
-  <si>
-    <t>83,8%</t>
+    <t>79,49%</t>
+  </si>
+  <si>
+    <t>83,78%</t>
   </si>
   <si>
     <t>20,23%</t>
   </si>
   <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>23,95%</t>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>23,8%</t>
   </si>
   <si>
     <t>16,44%</t>
   </si>
   <si>
-    <t>19,32%</t>
+    <t>13,88%</t>
   </si>
   <si>
     <t>18,28%</t>
   </si>
   <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>20,53%</t>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
   </si>
   <si>
     <t>71,36%</t>
   </si>
   <si>
-    <t>69,47%</t>
-  </si>
-  <si>
-    <t>73,5%</t>
+    <t>69,41%</t>
+  </si>
+  <si>
+    <t>73,54%</t>
   </si>
   <si>
     <t>77,03%</t>
   </si>
   <si>
-    <t>75,51%</t>
-  </si>
-  <si>
-    <t>79,2%</t>
+    <t>75,57%</t>
+  </si>
+  <si>
+    <t>79,46%</t>
   </si>
   <si>
     <t>74,36%</t>
   </si>
   <si>
-    <t>73,26%</t>
-  </si>
-  <si>
-    <t>76,23%</t>
+    <t>73,22%</t>
+  </si>
+  <si>
+    <t>76,0%</t>
   </si>
   <si>
     <t>28,64%</t>
   </si>
   <si>
-    <t>26,5%</t>
-  </si>
-  <si>
-    <t>30,53%</t>
+    <t>26,46%</t>
+  </si>
+  <si>
+    <t>30,59%</t>
   </si>
   <si>
     <t>22,97%</t>
   </si>
   <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>24,49%</t>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
   </si>
   <si>
     <t>25,64%</t>
   </si>
   <si>
-    <t>23,77%</t>
-  </si>
-  <si>
-    <t>26,74%</t>
+    <t>24,0%</t>
+  </si>
+  <si>
+    <t>26,78%</t>
   </si>
 </sst>
 </file>
@@ -925,7 +925,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16AF85E6-E9A4-446D-8581-3975EA696B9A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDE0241C-7E38-4F93-A203-95850E93F25E}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1231,7 +1231,7 @@
         <v>3132</v>
       </c>
       <c r="N7" s="7">
-        <v>3304255</v>
+        <v>3304254</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1267,7 +1267,7 @@
         <v>340</v>
       </c>
       <c r="I8" s="7">
-        <v>344815</v>
+        <v>344816</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1318,7 +1318,7 @@
         <v>1898</v>
       </c>
       <c r="I9" s="7">
-        <v>1976924</v>
+        <v>1976925</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1333,7 +1333,7 @@
         <v>3840</v>
       </c>
       <c r="N9" s="7">
-        <v>4042334</v>
+        <v>4042333</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1511,7 +1511,7 @@
         <v>2698</v>
       </c>
       <c r="D13" s="7">
-        <v>2830395</v>
+        <v>2830394</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>69</v>
@@ -1613,7 +1613,7 @@
         <v>3193</v>
       </c>
       <c r="D15" s="7">
-        <v>3354374</v>
+        <v>3354373</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1676,7 +1676,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D539102-7E36-4FF0-8889-2B395B2E2DD7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80E0CB93-1B46-438D-89DD-F6299BD19039}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2128,10 +2128,10 @@
         <v>128</v>
       </c>
       <c r="K10" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>58</v>
       </c>
       <c r="M10" s="7">
         <v>1411</v>
@@ -2179,10 +2179,10 @@
         <v>136</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>68</v>
+        <v>137</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>137</v>
+        <v>46</v>
       </c>
       <c r="M11" s="7">
         <v>271</v>
@@ -2262,7 +2262,7 @@
         <v>2461</v>
       </c>
       <c r="D13" s="7">
-        <v>2405913</v>
+        <v>2405912</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>141</v>
@@ -2277,7 +2277,7 @@
         <v>4234</v>
       </c>
       <c r="I13" s="7">
-        <v>2922229</v>
+        <v>2922230</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>144</v>
@@ -2364,7 +2364,7 @@
         <v>3359</v>
       </c>
       <c r="D15" s="7">
-        <v>3371537</v>
+        <v>3371536</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2379,7 +2379,7 @@
         <v>5342</v>
       </c>
       <c r="I15" s="7">
-        <v>3793389</v>
+        <v>3793390</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>

--- a/data/trans_orig/P36B14_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P36B14_R-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CE107DB8-7186-4449-98EC-FED96B043B38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{33DE118F-4230-4FFA-B291-9CD02F758FBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E4A6A4FC-6EF9-47CD-9789-684F798973F7}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{76C714F2-7B85-413F-B35A-7EA361308431}"/>
   </bookViews>
   <sheets>
     <sheet name="2016" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="161">
   <si>
     <t>Población que consume menos de una bebida azucarada por día en 2016 (Tasa respuesta: 99,39%)</t>
   </si>
@@ -306,214 +306,220 @@
     <t>Población que consume menos de una bebida azucarada por día en 2023 (Tasa respuesta: 99,78%)</t>
   </si>
   <si>
-    <t>72,43%</t>
-  </si>
-  <si>
-    <t>68,59%</t>
-  </si>
-  <si>
-    <t>75,88%</t>
-  </si>
-  <si>
-    <t>77,56%</t>
-  </si>
-  <si>
-    <t>74,82%</t>
-  </si>
-  <si>
-    <t>80,0%</t>
-  </si>
-  <si>
-    <t>75,55%</t>
-  </si>
-  <si>
-    <t>73,33%</t>
-  </si>
-  <si>
-    <t>77,59%</t>
-  </si>
-  <si>
-    <t>27,57%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>31,41%</t>
-  </si>
-  <si>
-    <t>22,44%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>25,18%</t>
-  </si>
-  <si>
-    <t>24,45%</t>
-  </si>
-  <si>
-    <t>22,41%</t>
-  </si>
-  <si>
-    <t>26,67%</t>
-  </si>
-  <si>
-    <t>68,47%</t>
-  </si>
-  <si>
-    <t>65,97%</t>
-  </si>
-  <si>
-    <t>71,37%</t>
-  </si>
-  <si>
-    <t>74,77%</t>
-  </si>
-  <si>
-    <t>72,61%</t>
-  </si>
-  <si>
-    <t>78,85%</t>
-  </si>
-  <si>
-    <t>71,68%</t>
-  </si>
-  <si>
-    <t>69,74%</t>
-  </si>
-  <si>
-    <t>74,19%</t>
-  </si>
-  <si>
-    <t>31,53%</t>
-  </si>
-  <si>
-    <t>28,63%</t>
-  </si>
-  <si>
-    <t>34,03%</t>
-  </si>
-  <si>
-    <t>25,23%</t>
-  </si>
-  <si>
-    <t>21,15%</t>
-  </si>
-  <si>
-    <t>27,39%</t>
-  </si>
-  <si>
-    <t>28,32%</t>
-  </si>
-  <si>
-    <t>25,81%</t>
-  </si>
-  <si>
-    <t>30,26%</t>
-  </si>
-  <si>
-    <t>79,77%</t>
-  </si>
-  <si>
-    <t>76,2%</t>
-  </si>
-  <si>
-    <t>83,05%</t>
-  </si>
-  <si>
-    <t>83,56%</t>
-  </si>
-  <si>
-    <t>86,12%</t>
-  </si>
-  <si>
-    <t>81,72%</t>
-  </si>
-  <si>
-    <t>79,49%</t>
-  </si>
-  <si>
-    <t>83,78%</t>
-  </si>
-  <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>23,8%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>18,28%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>71,36%</t>
-  </si>
-  <si>
-    <t>69,41%</t>
-  </si>
-  <si>
-    <t>73,54%</t>
-  </si>
-  <si>
-    <t>77,03%</t>
-  </si>
-  <si>
-    <t>75,57%</t>
-  </si>
-  <si>
-    <t>79,46%</t>
-  </si>
-  <si>
-    <t>74,36%</t>
-  </si>
-  <si>
-    <t>73,22%</t>
-  </si>
-  <si>
-    <t>76,0%</t>
-  </si>
-  <si>
-    <t>28,64%</t>
-  </si>
-  <si>
-    <t>26,46%</t>
-  </si>
-  <si>
-    <t>30,59%</t>
-  </si>
-  <si>
-    <t>22,97%</t>
-  </si>
-  <si>
-    <t>20,54%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>25,64%</t>
-  </si>
-  <si>
-    <t>24,0%</t>
-  </si>
-  <si>
-    <t>26,78%</t>
+    <t>73,18%</t>
+  </si>
+  <si>
+    <t>69,3%</t>
+  </si>
+  <si>
+    <t>76,63%</t>
+  </si>
+  <si>
+    <t>78,19%</t>
+  </si>
+  <si>
+    <t>75,49%</t>
+  </si>
+  <si>
+    <t>80,52%</t>
+  </si>
+  <si>
+    <t>76,16%</t>
+  </si>
+  <si>
+    <t>74,03%</t>
+  </si>
+  <si>
+    <t>78,22%</t>
+  </si>
+  <si>
+    <t>26,82%</t>
+  </si>
+  <si>
+    <t>23,37%</t>
+  </si>
+  <si>
+    <t>30,7%</t>
+  </si>
+  <si>
+    <t>21,81%</t>
+  </si>
+  <si>
+    <t>19,48%</t>
+  </si>
+  <si>
+    <t>24,51%</t>
+  </si>
+  <si>
+    <t>23,84%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>25,97%</t>
+  </si>
+  <si>
+    <t>72,18%</t>
+  </si>
+  <si>
+    <t>68,08%</t>
+  </si>
+  <si>
+    <t>80,73%</t>
+  </si>
+  <si>
+    <t>77,63%</t>
+  </si>
+  <si>
+    <t>74,42%</t>
+  </si>
+  <si>
+    <t>83,63%</t>
+  </si>
+  <si>
+    <t>74,88%</t>
+  </si>
+  <si>
+    <t>71,76%</t>
+  </si>
+  <si>
+    <t>79,63%</t>
+  </si>
+  <si>
+    <t>27,82%</t>
+  </si>
+  <si>
+    <t>19,27%</t>
+  </si>
+  <si>
+    <t>31,92%</t>
+  </si>
+  <si>
+    <t>22,37%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>25,58%</t>
+  </si>
+  <si>
+    <t>25,12%</t>
+  </si>
+  <si>
+    <t>20,37%</t>
+  </si>
+  <si>
+    <t>28,24%</t>
+  </si>
+  <si>
+    <t>80,24%</t>
+  </si>
+  <si>
+    <t>75,8%</t>
+  </si>
+  <si>
+    <t>83,54%</t>
+  </si>
+  <si>
+    <t>84,07%</t>
+  </si>
+  <si>
+    <t>81,4%</t>
+  </si>
+  <si>
+    <t>86,66%</t>
+  </si>
+  <si>
+    <t>82,17%</t>
+  </si>
+  <si>
+    <t>79,59%</t>
+  </si>
+  <si>
+    <t>84,21%</t>
+  </si>
+  <si>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>16,46%</t>
+  </si>
+  <si>
+    <t>24,2%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>20,41%</t>
+  </si>
+  <si>
+    <t>73,84%</t>
+  </si>
+  <si>
+    <t>71,15%</t>
+  </si>
+  <si>
+    <t>79,99%</t>
+  </si>
+  <si>
+    <t>78,91%</t>
+  </si>
+  <si>
+    <t>77,06%</t>
+  </si>
+  <si>
+    <t>83,19%</t>
+  </si>
+  <si>
+    <t>76,45%</t>
+  </si>
+  <si>
+    <t>74,8%</t>
+  </si>
+  <si>
+    <t>79,72%</t>
+  </si>
+  <si>
+    <t>26,16%</t>
+  </si>
+  <si>
+    <t>20,01%</t>
+  </si>
+  <si>
+    <t>28,85%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>23,55%</t>
+  </si>
+  <si>
+    <t>20,28%</t>
+  </si>
+  <si>
+    <t>25,2%</t>
   </si>
 </sst>
 </file>
@@ -925,7 +931,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDE0241C-7E38-4F93-A203-95850E93F25E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFB0193D-A10B-4AE1-A4AD-802C5F5933AD}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1386,7 +1392,7 @@
         <v>895</v>
       </c>
       <c r="N10" s="7">
-        <v>962530</v>
+        <v>962531</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1488,7 +1494,7 @@
         <v>1023</v>
       </c>
       <c r="N12" s="7">
-        <v>1091748</v>
+        <v>1091749</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1676,7 +1682,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80E0CB93-1B46-438D-89DD-F6299BD19039}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5C87C66-C8F3-464C-B6CE-C8455365E741}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1797,7 +1803,7 @@
         <v>522</v>
       </c>
       <c r="D4" s="7">
-        <v>390654</v>
+        <v>375338</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>89</v>
@@ -1812,7 +1818,7 @@
         <v>1140</v>
       </c>
       <c r="I4" s="7">
-        <v>648348</v>
+        <v>590708</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>92</v>
@@ -1827,7 +1833,7 @@
         <v>1662</v>
       </c>
       <c r="N4" s="7">
-        <v>1039001</v>
+        <v>966046</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>95</v>
@@ -1848,7 +1854,7 @@
         <v>167</v>
       </c>
       <c r="D5" s="7">
-        <v>148706</v>
+        <v>137545</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>98</v>
@@ -1863,7 +1869,7 @@
         <v>287</v>
       </c>
       <c r="I5" s="7">
-        <v>187605</v>
+        <v>164800</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>101</v>
@@ -1878,7 +1884,7 @@
         <v>454</v>
       </c>
       <c r="N5" s="7">
-        <v>336311</v>
+        <v>302345</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>104</v>
@@ -1899,7 +1905,7 @@
         <v>689</v>
       </c>
       <c r="D6" s="7">
-        <v>539360</v>
+        <v>512883</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1914,7 +1920,7 @@
         <v>1427</v>
       </c>
       <c r="I6" s="7">
-        <v>835953</v>
+        <v>755508</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1929,7 +1935,7 @@
         <v>2116</v>
       </c>
       <c r="N6" s="7">
-        <v>1375312</v>
+        <v>1268391</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1952,7 +1958,7 @@
         <v>1383</v>
       </c>
       <c r="D7" s="7">
-        <v>1478380</v>
+        <v>1651225</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>107</v>
@@ -1967,7 +1973,7 @@
         <v>2239</v>
       </c>
       <c r="I7" s="7">
-        <v>1678458</v>
+        <v>1733945</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>110</v>
@@ -1982,7 +1988,7 @@
         <v>3622</v>
       </c>
       <c r="N7" s="7">
-        <v>3156838</v>
+        <v>3385170</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>113</v>
@@ -2003,7 +2009,7 @@
         <v>606</v>
       </c>
       <c r="D8" s="7">
-        <v>680758</v>
+        <v>636316</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>116</v>
@@ -2018,7 +2024,7 @@
         <v>675</v>
       </c>
       <c r="I8" s="7">
-        <v>566438</v>
+        <v>499606</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>119</v>
@@ -2033,7 +2039,7 @@
         <v>1281</v>
       </c>
       <c r="N8" s="7">
-        <v>1247196</v>
+        <v>1135922</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>122</v>
@@ -2054,7 +2060,7 @@
         <v>1989</v>
       </c>
       <c r="D9" s="7">
-        <v>2159138</v>
+        <v>2287541</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2069,7 +2075,7 @@
         <v>2914</v>
       </c>
       <c r="I9" s="7">
-        <v>2244896</v>
+        <v>2233551</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2084,7 +2090,7 @@
         <v>4903</v>
       </c>
       <c r="N9" s="7">
-        <v>4404034</v>
+        <v>4521092</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2107,7 +2113,7 @@
         <v>556</v>
       </c>
       <c r="D10" s="7">
-        <v>536878</v>
+        <v>518837</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>125</v>
@@ -2122,31 +2128,31 @@
         <v>855</v>
       </c>
       <c r="I10" s="7">
-        <v>595424</v>
+        <v>554253</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>128</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>36</v>
+        <v>129</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M10" s="7">
         <v>1411</v>
       </c>
       <c r="N10" s="7">
-        <v>1132302</v>
+        <v>1073091</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2158,46 +2164,46 @@
         <v>125</v>
       </c>
       <c r="D11" s="7">
-        <v>136161</v>
+        <v>127786</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H11" s="7">
         <v>146</v>
       </c>
       <c r="I11" s="7">
-        <v>117117</v>
+        <v>105003</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>46</v>
+        <v>139</v>
       </c>
       <c r="M11" s="7">
         <v>271</v>
       </c>
       <c r="N11" s="7">
-        <v>253278</v>
+        <v>232788</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2209,7 +2215,7 @@
         <v>681</v>
       </c>
       <c r="D12" s="7">
-        <v>673039</v>
+        <v>646623</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -2224,7 +2230,7 @@
         <v>1001</v>
       </c>
       <c r="I12" s="7">
-        <v>712541</v>
+        <v>659256</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2239,7 +2245,7 @@
         <v>1682</v>
       </c>
       <c r="N12" s="7">
-        <v>1385580</v>
+        <v>1305879</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2262,46 +2268,46 @@
         <v>2461</v>
       </c>
       <c r="D13" s="7">
-        <v>2405912</v>
+        <v>2545401</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H13" s="7">
         <v>4234</v>
       </c>
       <c r="I13" s="7">
-        <v>2922230</v>
+        <v>2878906</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M13" s="7">
         <v>6695</v>
       </c>
       <c r="N13" s="7">
-        <v>5328142</v>
+        <v>5424306</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2313,46 +2319,46 @@
         <v>898</v>
       </c>
       <c r="D14" s="7">
-        <v>965624</v>
+        <v>901646</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H14" s="7">
         <v>1108</v>
       </c>
       <c r="I14" s="7">
-        <v>871160</v>
+        <v>769409</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="M14" s="7">
         <v>2006</v>
       </c>
       <c r="N14" s="7">
-        <v>1836784</v>
+        <v>1671056</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2364,7 +2370,7 @@
         <v>3359</v>
       </c>
       <c r="D15" s="7">
-        <v>3371536</v>
+        <v>3447047</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2379,7 +2385,7 @@
         <v>5342</v>
       </c>
       <c r="I15" s="7">
-        <v>3793390</v>
+        <v>3648315</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2394,7 +2400,7 @@
         <v>8701</v>
       </c>
       <c r="N15" s="7">
-        <v>7164926</v>
+        <v>7095362</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
